--- a/doc/ue_component_render.xlsx
+++ b/doc/ue_component_render.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73365BF-F056-4EF8-A695-BAB9263E6530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3CABCD-445D-42FF-8628-3B8C1DB44F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
     <sheet name="渲染数据同步" sheetId="2" r:id="rId2"/>
     <sheet name="Render" sheetId="3" r:id="rId3"/>
     <sheet name="是否需要渲染" sheetId="4" r:id="rId4"/>
+    <sheet name="UActorComponent" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="90">
   <si>
     <t>主要将Component逻辑数据和渲染数据的通讯</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -283,6 +284,50 @@
   </si>
   <si>
     <t>class ENGINE_API USceneComponent : public UActorComponent</t>
+  </si>
+  <si>
+    <t>// If registered and has a render state to mark as dirty</t>
+  </si>
+  <si>
+    <t>if(IsRegistered() &amp;&amp; bRenderStateCreated &amp;&amp; (!bRenderStateDirty || !GetWorld()))</t>
+  </si>
+  <si>
+    <t>// Flag as dirty</t>
+  </si>
+  <si>
+    <t>MarkRenderStateDirtyEvent.Broadcast(*this);</t>
+  </si>
+  <si>
+    <t>if (IsRegistered() &amp;&amp; bRenderStateCreated)</t>
+  </si>
+  <si>
+    <t>void UActorComponent::MarkRenderDynamicDataDirty()</t>
+  </si>
+  <si>
+    <t>if(IsRegistered() &amp;&amp; bRenderStateCreated)</t>
+  </si>
+  <si>
+    <t>bRenderDynamicDataDirty = true;</t>
+  </si>
+  <si>
+    <t>创建RenderState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新位置信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新动态数据，例如骨骼信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不调用的话，人物不会动，骨骼不刷新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会在渲染的FScene::UpdateAllPrimitiveSceneInfos里面将AddedPrimitiveSceneInfos加入到渲染数据里面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -852,8 +897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BFDAC72-4C71-43C5-85AE-D9A1C449804D}">
   <dimension ref="B4:L32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -937,6 +982,9 @@
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>24</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
@@ -1006,7 +1054,7 @@
   <dimension ref="B5:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1118,7 +1166,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1140BDF-F0DA-483D-985A-99119759A5AC}">
   <dimension ref="B2:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
@@ -1184,4 +1232,189 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B68C24EA-D8D9-48FC-833C-C265F006F0FB}">
+  <dimension ref="A4:D39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>